--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FAFE13-769B-4CB0-B03D-AEE309314A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5F020-56CA-49C5-A4A3-013F0E9E5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -651,6 +651,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,31 +684,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1146,15 +1146,15 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.419</v>
+        <v>3.3</v>
       </c>
       <c r="B2" s="4">
-        <v>1.8E-3</v>
+        <v>-3.49E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>289.57</v>
-      </c>
-      <c r="D2" s="37">
+        <v>271.27</v>
+      </c>
+      <c r="D2" s="26">
         <v>0.79079999999999995</v>
       </c>
       <c r="E2" s="24"/>
@@ -1167,32 +1167,32 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="31">
-        <v>3.71</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="29">
+        <v>3.548</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="27">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="G5" s="28"/>
+      <c r="F5" s="33">
+        <v>-4.3499999999999997E-2</v>
+      </c>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
@@ -1218,13 +1218,13 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="7">
@@ -1237,9 +1237,9 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7">
@@ -1252,9 +1252,9 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7">
@@ -1267,13 +1267,13 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7">
@@ -1286,9 +1286,9 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7">
@@ -1307,7 +1307,7 @@
       <c r="B12" s="4">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7">
@@ -1326,7 +1326,7 @@
       <c r="B13" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7">
@@ -1339,13 +1339,13 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="31">
         <v>0.41320000000000001</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="7">
@@ -1358,9 +1358,9 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="38" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="7">
@@ -1373,9 +1373,9 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7">
@@ -1394,7 +1394,7 @@
       <c r="B17" s="4">
         <v>2.7900000000000001E-2</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="7">
@@ -1407,13 +1407,13 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="31">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="7">
@@ -1426,9 +1426,9 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="38" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="7">
@@ -1447,7 +1447,7 @@
       <c r="B20" s="4">
         <v>1.32E-2</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="7">
@@ -1466,7 +1466,7 @@
       <c r="B21" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="7">
@@ -1479,13 +1479,13 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="31">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="7">
@@ -1498,9 +1498,9 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="35"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="7">
@@ -1519,7 +1519,7 @@
       <c r="B24" s="4">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="27" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="7">
@@ -1538,7 +1538,7 @@
       <c r="B25" s="4">
         <v>1.04E-2</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="7">
@@ -1557,7 +1557,7 @@
       <c r="B26" s="4">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D26" s="7">
@@ -1576,7 +1576,7 @@
       <c r="B27" s="4">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="7">
@@ -1596,32 +1596,32 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="31">
-        <v>2.4830000000000001</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="29">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="29">
-        <v>-1.6199999999999999E-2</v>
-      </c>
-      <c r="G30" s="30"/>
+      <c r="F30" s="35">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
@@ -1653,7 +1653,7 @@
       <c r="B32" s="7">
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="7">
@@ -1672,7 +1672,7 @@
       <c r="B33" s="7">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="28" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="7">
@@ -1685,13 +1685,13 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="38">
         <v>1.5299999999999999E-2</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="7">
@@ -1704,9 +1704,9 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="39" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="28" t="s">
         <v>43</v>
       </c>
       <c r="D35" s="7">
@@ -1725,7 +1725,7 @@
       <c r="B36" s="7">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="7">
@@ -1738,13 +1738,13 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="33">
+      <c r="B37" s="38">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="28" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="7">
@@ -1757,9 +1757,9 @@
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="32"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="39" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="28" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="7">
@@ -1779,11 +1779,11 @@
       <c r="E39" s="17"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25"/>
     </row>
@@ -1809,18 +1809,13 @@
       </c>
       <c r="C42" s="9">
         <f>A2*B42</f>
-        <v>526542.53770300001</v>
+        <v>508215.96209999995</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A40:C40"/>
@@ -1837,6 +1832,11 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5F020-56CA-49C5-A4A3-013F0E9E5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005F042-E4DA-4692-948B-7A1085289A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>净值</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>中概互联ETF</t>
-  </si>
-  <si>
-    <t>地产</t>
-  </si>
-  <si>
-    <t>滨江服务</t>
   </si>
   <si>
     <t>食物饮品</t>
@@ -660,37 +654,37 @@
     <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,11 +1108,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36160D38-0BC6-43C8-BD91-90CCB0642CF3}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
@@ -1131,28 +1123,28 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.3</v>
+        <v>3.3109999999999999</v>
       </c>
       <c r="B2" s="4">
-        <v>-3.49E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>271.27</v>
+        <v>273.08999999999997</v>
       </c>
       <c r="D2" s="26">
         <v>0.79079999999999995</v>
@@ -1167,61 +1159,61 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29">
-        <v>3.548</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="34">
+        <v>3.569</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="33">
-        <v>-4.3499999999999997E-2</v>
-      </c>
-      <c r="G5" s="34"/>
+        <v>64</v>
+      </c>
+      <c r="F5" s="30">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="37">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1237,8 +1229,8 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1252,8 +1244,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -1267,10 +1259,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="37">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1286,8 +1278,8 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
@@ -1339,10 +1331,10 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="37">
         <v>0.41320000000000001</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -1358,8 +1350,8 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1373,8 +1365,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
@@ -1407,10 +1399,10 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="37">
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -1426,8 +1418,8 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
@@ -1479,10 +1471,10 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="37">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -1498,8 +1490,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="27" t="s">
         <v>28</v>
       </c>
@@ -1596,54 +1588,54 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="A29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="29">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="34">
+        <v>2.4790000000000001</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="35">
-        <v>-3.5999999999999999E-3</v>
-      </c>
-      <c r="G30" s="36"/>
+        <v>64</v>
+      </c>
+      <c r="F30" s="32">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="F31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1685,10 +1677,10 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -1704,8 +1696,8 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="28" t="s">
         <v>43</v>
       </c>
@@ -1719,127 +1711,109 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="7">
-        <v>8.8999999999999999E-3</v>
+      <c r="B36" s="36">
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="7">
-        <v>8.8999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E36" s="8">
-        <v>70.48</v>
+        <v>1894.99</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="38">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="D37" s="7">
-        <v>5.9999999999999995E-4</v>
+        <v>4.2200000000000001E-2</v>
       </c>
       <c r="E37" s="8">
-        <v>1894.99</v>
+        <v>553.5</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="7">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="E38" s="8">
-        <v>553.5</v>
-      </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="C40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>59</v>
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="1">
+        <v>154004.837</v>
+      </c>
+      <c r="C41" s="9">
+        <f>A2*B41</f>
+        <v>509910.01530699997</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="1">
-        <v>154004.837</v>
-      </c>
-      <c r="C42" s="9">
-        <f>A2*B42</f>
-        <v>508215.96209999995</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3005F042-E4DA-4692-948B-7A1085289A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FEDF5-C337-478A-97D7-CBBF017ECA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -654,6 +654,15 @@
     <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,22 +678,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1110,7 +1110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36160D38-0BC6-43C8-BD91-90CCB0642CF3}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
@@ -1138,13 +1140,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.3109999999999999</v>
+        <v>3.3079999999999998</v>
       </c>
       <c r="B2" s="4">
-        <v>3.5000000000000001E-3</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="C2" s="5">
-        <v>273.08999999999997</v>
+        <v>272.61</v>
       </c>
       <c r="D2" s="26">
         <v>0.79079999999999995</v>
@@ -1159,32 +1161,32 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34">
-        <v>3.569</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="29">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="G5" s="31"/>
+      <c r="F5" s="33">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
@@ -1210,10 +1212,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="31">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1229,8 +1231,8 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1244,8 +1246,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -1259,10 +1261,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="31">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1278,8 +1280,8 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
@@ -1331,10 +1333,10 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="31">
         <v>0.41320000000000001</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -1350,8 +1352,8 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1365,8 +1367,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
@@ -1399,10 +1401,10 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="31">
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -1418,8 +1420,8 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
@@ -1471,10 +1473,10 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="31">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -1490,8 +1492,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="37"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="27" t="s">
         <v>28</v>
       </c>
@@ -1588,32 +1590,32 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="34">
-        <v>2.4790000000000001</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="29">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="32">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="G30" s="33"/>
+      <c r="F30" s="35">
+        <v>-2.2000000000000001E-3</v>
+      </c>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
@@ -1677,10 +1679,10 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="38">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -1696,8 +1698,8 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="28" t="s">
         <v>43</v>
       </c>
@@ -1711,10 +1713,10 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="38">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -1730,8 +1732,8 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="28" t="s">
         <v>46</v>
       </c>
@@ -1752,11 +1754,11 @@
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
     </row>
@@ -1782,18 +1784,13 @@
       </c>
       <c r="C41" s="9">
         <f>A2*B41</f>
-        <v>509910.01530699997</v>
+        <v>509448.00079599995</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A39:C39"/>
@@ -1810,6 +1807,11 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540FEDF5-C337-478A-97D7-CBBF017ECA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA280E-D235-4A64-B86E-DF82F2F12FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -654,37 +654,37 @@
     <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +799,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.3079999999999998</v>
+        <v>3.294</v>
       </c>
       <c r="B2" s="4">
-        <v>-8.0000000000000004E-4</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>272.61</v>
+        <v>270.33999999999997</v>
       </c>
       <c r="D2" s="26">
         <v>0.79079999999999995</v>
@@ -1161,32 +1161,32 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="29">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="34">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="33">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-      <c r="G5" s="34"/>
+      <c r="F5" s="30">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G5" s="31"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
@@ -1212,10 +1212,10 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="37">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1231,8 +1231,8 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -1261,10 +1261,10 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="37">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1280,8 +1280,8 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
@@ -1333,10 +1333,10 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="37">
         <v>0.41320000000000001</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -1352,8 +1352,8 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
@@ -1367,8 +1367,8 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
@@ -1401,10 +1401,10 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="37">
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -1420,8 +1420,8 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="39"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="27" t="s">
         <v>21</v>
       </c>
@@ -1473,10 +1473,10 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="37">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -1492,8 +1492,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="39"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="27" t="s">
         <v>28</v>
       </c>
@@ -1590,32 +1590,32 @@
       <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="29">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="34">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="35">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-      <c r="G30" s="36"/>
+      <c r="F30" s="32">
+        <v>-2.0799999999999999E-2</v>
+      </c>
+      <c r="G30" s="33"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="11" t="s">
@@ -1679,10 +1679,10 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="36">
         <v>1.5299999999999999E-2</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -1698,8 +1698,8 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="28" t="s">
         <v>43</v>
       </c>
@@ -1713,10 +1713,10 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="36">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -1732,8 +1732,8 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="28" t="s">
         <v>46</v>
       </c>
@@ -1754,11 +1754,11 @@
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
       <c r="D39" s="25"/>
       <c r="E39" s="25"/>
     </row>
@@ -1784,13 +1784,18 @@
       </c>
       <c r="C41" s="9">
         <f>A2*B41</f>
-        <v>509448.00079599995</v>
+        <v>507291.93307800003</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A39:C39"/>
@@ -1807,11 +1812,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA280E-D235-4A64-B86E-DF82F2F12FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AEA83F-2221-44E3-B532-EBE740500569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>净值</t>
   </si>
@@ -98,9 +98,6 @@
     <t>ETF</t>
   </si>
   <si>
-    <t>恒生ETF</t>
-  </si>
-  <si>
     <t>恒指科技ETF</t>
   </si>
   <si>
@@ -125,12 +122,6 @@
     <t>美的集团</t>
   </si>
   <si>
-    <t>农林牧渔</t>
-  </si>
-  <si>
-    <t>生物股份</t>
-  </si>
-  <si>
     <t>旅游及消闲设施</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
     <t>美国生科ETF</t>
   </si>
   <si>
-    <t>中概互联ETF</t>
-  </si>
-  <si>
     <t>食物饮品</t>
   </si>
   <si>
@@ -247,6 +235,50 @@
   </si>
   <si>
     <t>涨跌</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中概互联</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -382,8 +414,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,12 +475,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -566,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,13 +684,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="9" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,22 +714,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,74 +757,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1108,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36160D38-0BC6-43C8-BD91-90CCB0642CF3}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1125,31 +1102,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.294</v>
+        <v>3.3039999999999998</v>
       </c>
       <c r="B2" s="4">
-        <v>-4.4000000000000003E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>270.33999999999997</v>
+        <v>272.01</v>
       </c>
       <c r="D2" s="26">
-        <v>0.79079999999999995</v>
+        <v>0.74429999999999996</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -1161,135 +1138,135 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="34">
-        <v>3.5680000000000001</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="B5" s="28">
+        <v>3.5859999999999999</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="30">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G5" s="31"/>
+        <v>60</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
-        <v>5.0299999999999997E-2</v>
+      <c r="B7" s="30">
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2.6499999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>1043</v>
+        <v>945.3</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="39"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1.32E-2</v>
+        <v>1.24E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>1043</v>
+        <v>945.3</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="39"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>1.06E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>1043</v>
+        <v>945.3</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="37">
-        <v>8.6999999999999994E-3</v>
+      <c r="B10" s="30">
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>8.9999999999999998E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>5.25</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="7">
-        <v>7.7999999999999996E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>225.01</v>
+        <v>212.8</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1299,16 +1276,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>5.7000000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>5.7000000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="E12" s="8">
-        <v>1804</v>
+        <v>1712</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1318,65 +1295,65 @@
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>4.4900000000000002E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>4.4900000000000002E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>1598.8</v>
+        <v>1697</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="37">
-        <v>0.41320000000000001</v>
+      <c r="B14" s="30">
+        <v>0.40550000000000003</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>0.13400000000000001</v>
+        <v>0.13150000000000001</v>
       </c>
       <c r="E14" s="8">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="35"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>0.18990000000000001</v>
+        <v>0.18629999999999999</v>
       </c>
       <c r="E15" s="8">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="35"/>
-      <c r="B16" s="37"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="27" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>8.9300000000000004E-2</v>
+        <v>8.77E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>58400</v>
+        <v>56100</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1386,16 +1363,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="4">
-        <v>2.7900000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>2.7900000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>233.95</v>
+        <v>206.4</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -1404,14 +1381,14 @@
       <c r="A18" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="37">
-        <v>4.1799999999999997E-2</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>20</v>
+      <c r="B18" s="30">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="7">
-        <v>2.93E-2</v>
+        <v>2.9399999999999999E-2</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>7</v>
@@ -1421,12 +1398,12 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>7</v>
@@ -1436,260 +1413,256 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.46E-2</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4">
-        <v>1.32E-2</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" s="7">
-        <v>1.32E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>780.6</v>
+        <v>835.3</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" s="7">
-        <v>3.3000000000000002E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="E21" s="8">
-        <v>249.16</v>
+        <v>250.2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="30">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="37">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>27</v>
-      </c>
       <c r="D22" s="7">
-        <v>1.9800000000000002E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>875.08</v>
+        <v>755.7</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="38"/>
-      <c r="B23" s="37"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1.14E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>5733</v>
+        <v>6111</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" s="7">
-        <v>1.6299999999999999E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E24" s="8">
-        <v>119.7</v>
+        <v>178.3</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="7">
-        <v>1.04E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E25" s="8">
-        <v>210.21</v>
+        <v>1370</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>34</v>
-      </c>
       <c r="D26" s="7">
-        <v>3.5999999999999999E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E26" s="8">
-        <v>1428</v>
+        <v>65.88</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="28">
+        <v>2.42</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="34">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1.35E-2</v>
+      </c>
+      <c r="C31" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>70.52</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="34">
-        <v>2.4220000000000002</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="32">
-        <v>-2.0799999999999999E-2</v>
-      </c>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="D31" s="7">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>10.44</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="7">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="7">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>38</v>
-      </c>
       <c r="D32" s="7">
-        <v>1.3599999999999999E-2</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="E32" s="8">
-        <v>10.99</v>
+        <v>102.53</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="37">
+        <v>1.55E-2</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="7">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="D33" s="7">
-        <v>6.7999999999999996E-3</v>
-      </c>
-      <c r="E33" s="8">
-        <v>121.87</v>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="36">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>42</v>
+      <c r="A34" s="36"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="D34" s="7">
-        <v>5.8999999999999999E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>7</v>
@@ -1698,120 +1671,105 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="28" t="s">
-        <v>43</v>
+      <c r="A35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="37">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="D35" s="7">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1952.74</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="36">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>45</v>
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="7">
-        <v>5.9999999999999995E-4</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>1894.99</v>
+        <v>469.13</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="7">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>553.5</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>57</v>
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="1">
+        <v>154004.837</v>
+      </c>
+      <c r="C40" s="9">
+        <f>A2*B40</f>
+        <v>508831.98144799995</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="1">
-        <v>154004.837</v>
-      </c>
-      <c r="C41" s="9">
-        <f>A2*B41</f>
-        <v>507291.93307800003</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AEA83F-2221-44E3-B532-EBE740500569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF24822-AF42-4EF9-B365-3C5806B44EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>洋河股份L</t>
   </si>
   <si>
-    <t>洋河股份D</t>
-  </si>
-  <si>
     <t>房地产</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>软件服务</t>
   </si>
   <si>
-    <t>腾讯控股L</t>
-  </si>
-  <si>
     <t>腾讯控股D</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t xml:space="preserve"> 计算机及网络</t>
   </si>
   <si>
-    <t>挚文集团</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 通讯业务</t>
   </si>
   <si>
@@ -153,9 +144,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>美国生科ETF</t>
   </si>
   <si>
     <t>食物饮品</t>
@@ -278,6 +266,76 @@
         <family val="1"/>
       </rPr>
       <t>ETF</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>挚文集团</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美国生科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ETF</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>腾讯控股</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋河股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -605,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,46 +748,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +1149,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
@@ -1102,31 +1163,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.3039999999999998</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="B2" s="4">
-        <v>3.2000000000000002E-3</v>
+        <v>-8.0999999999999996E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>272.01</v>
+        <v>267.82</v>
       </c>
       <c r="D2" s="26">
-        <v>0.74429999999999996</v>
+        <v>0.74180000000000001</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -1139,7 +1200,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
@@ -1152,47 +1213,47 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28">
-        <v>3.5859999999999999</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="36">
+        <v>3.5550000000000002</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="32">
-        <v>5.1999999999999998E-3</v>
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="39">
         <v>4.4600000000000001E-2</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1202,14 +1263,14 @@
         <v>2.23E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>945.3</v>
+        <v>936</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
@@ -1217,325 +1278,325 @@
         <v>1.24E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>945.3</v>
+        <v>936</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27" t="s">
-        <v>4</v>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="D9" s="7">
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>945.3</v>
+        <v>936</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="39">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>5</v>
-      </c>
-      <c r="B10" s="30">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>6</v>
       </c>
       <c r="D10" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>5.0199999999999996</v>
+        <v>4.95</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>7.4999999999999997E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>212.8</v>
+        <v>209.8</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="7">
-        <v>5.5999999999999999E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E12" s="8">
-        <v>1712</v>
+        <v>1690</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.05" customHeight="1">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" s="7">
-        <v>4.8500000000000001E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>1697</v>
+        <v>1724</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="30">
-        <v>0.40550000000000003</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>14</v>
+      <c r="A14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="39">
+        <v>0.40060000000000001</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>0.13150000000000001</v>
+        <v>0.12989999999999999</v>
       </c>
       <c r="E14" s="8">
-        <v>56100</v>
+        <v>55100</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="36"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>0.18629999999999999</v>
+        <v>0.18410000000000001</v>
       </c>
       <c r="E15" s="8">
-        <v>56100</v>
+        <v>55100</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="36"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="7">
-        <v>8.77E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>56100</v>
+        <v>55100</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>206.4</v>
+        <v>208.5</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="30">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>62</v>
+      <c r="A18" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="7">
-        <v>2.9399999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="38"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>1.1599999999999999E-2</v>
+        <v>1.18E-2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>1.46E-2</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" s="7">
         <v>1.46E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>835.3</v>
+        <v>830.6</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4">
-        <v>3.3799999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>3.3799999999999997E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="E21" s="8">
-        <v>250.2</v>
+        <v>254.2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="30">
-        <v>2.9899999999999999E-2</v>
+      <c r="A22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="39">
+        <v>3.0300000000000001E-2</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>1.7399999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>755.7</v>
+        <v>763.1</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="38"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>6111</v>
+        <v>5992</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>8.9999999999999993E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E24" s="8">
-        <v>178.3</v>
+        <v>176.1</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>3.5999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>3.5999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="E25" s="8">
-        <v>1370</v>
+        <v>1441</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E26" s="8">
-        <v>65.88</v>
+        <v>64.72</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1549,7 +1610,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -1562,144 +1623,144 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="28">
-        <v>2.42</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="B29" s="36">
+        <v>2.415</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F29" s="34">
-        <v>-8.0000000000000004E-4</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
       <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31" s="7">
-        <v>1.35E-2</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>35</v>
+        <v>1.32E-2</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="D31" s="7">
-        <v>1.35E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="E31" s="8">
-        <v>10.44</v>
+        <v>10.210000000000001</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B32" s="7">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="C32" s="39" t="s">
-        <v>37</v>
+      <c r="C32" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D32" s="7">
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="E32" s="8">
-        <v>102.53</v>
+        <v>103.23</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="37">
-        <v>1.55E-2</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>39</v>
+      <c r="A33" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="38">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="D33" s="7">
-        <v>6.8999999999999999E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="40" t="s">
-        <v>61</v>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="7">
-        <v>8.6E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="37">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>41</v>
+      <c r="A35" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="38">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="D35" s="7">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E35" s="8">
-        <v>1952.74</v>
+        <v>1944.56</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="39" t="s">
-        <v>42</v>
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="D36" s="7">
-        <v>3.6400000000000002E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>469.13</v>
+        <v>462.53</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1713,7 +1774,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -1722,33 +1783,38 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>154004.837</v>
       </c>
       <c r="C40" s="9">
         <f>A2*B40</f>
-        <v>508831.98144799995</v>
+        <v>504673.85084900004</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A38:C38"/>
@@ -1765,11 +1831,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF24822-AF42-4EF9-B365-3C5806B44EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B04CC-3EB4-46F8-BEB1-A4FED4747C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -44,12 +44,6 @@
     <t>食品饮料</t>
   </si>
   <si>
-    <t>洋河股份F</t>
-  </si>
-  <si>
-    <t>洋河股份L</t>
-  </si>
-  <si>
     <t>房地产</t>
   </si>
   <si>
@@ -336,6 +330,50 @@
         <family val="1"/>
       </rPr>
       <t>D</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋河股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋河股份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>F</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -742,19 +780,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -772,25 +822,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,7 +875,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -1148,9 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36160D38-0BC6-43C8-BD91-90CCB0642CF3}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
@@ -1163,31 +1199,31 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.2770000000000001</v>
+        <v>3.3069999999999999</v>
       </c>
       <c r="B2" s="4">
-        <v>-8.0999999999999996E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C2" s="5">
-        <v>267.82</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0.74180000000000001</v>
+        <v>272.45</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0.74460000000000004</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -1199,404 +1235,404 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36">
-        <v>3.5550000000000002</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="32">
+        <v>3.5920000000000001</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="32">
-        <v>-8.5000000000000006E-3</v>
-      </c>
-      <c r="G5" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1.04E-2</v>
+      </c>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="39">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
+      <c r="B7" s="34">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>2.23E-2</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="27" t="s">
-        <v>3</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>1.24E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="30" t="s">
-        <v>62</v>
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="D9" s="7">
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="E9" s="8">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="39">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>5</v>
+      <c r="A10" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="34">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>4.95</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="27" t="s">
-        <v>7</v>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="30" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7.4000000000000003E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>209.8</v>
+        <v>226</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>9</v>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>5.4999999999999997E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="E12" s="8">
-        <v>1690</v>
+        <v>1672</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="13.05" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4">
-        <v>4.9599999999999998E-2</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>11</v>
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>4.9599999999999998E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>1724</v>
+        <v>1914</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="39">
-        <v>0.40060000000000001</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>61</v>
+      <c r="A14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0.39929999999999999</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>0.12989999999999999</v>
+        <v>0.1295</v>
       </c>
       <c r="E14" s="8">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="27" t="s">
-        <v>13</v>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="30" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>0.18410000000000001</v>
+        <v>0.1835</v>
       </c>
       <c r="E15" s="8">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="27" t="s">
-        <v>14</v>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8.6599999999999996E-2</v>
+        <v>8.6300000000000002E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="17" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>16</v>
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>2.5399999999999999E-2</v>
+        <v>2.6800000000000001E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>208.5</v>
+        <v>223.2</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="39">
-        <v>4.1700000000000001E-2</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>58</v>
+      <c r="A18" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="34">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>2.9899999999999999E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="40"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="27" t="s">
-        <v>18</v>
+      <c r="A19" s="42"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="30" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>1.18E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>1.46E-2</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>20</v>
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>1.46E-2</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>830.6</v>
+        <v>813.4</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>22</v>
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>3.4500000000000003E-2</v>
+        <v>3.3799999999999997E-2</v>
       </c>
       <c r="E21" s="8">
-        <v>254.2</v>
+        <v>253.2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="39">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>24</v>
+      <c r="A22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="34">
+        <v>2.93E-2</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>1.77E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>763.1</v>
+        <v>730.3</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="40"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="27" t="s">
-        <v>25</v>
+      <c r="A23" s="42"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="7">
         <v>1.26E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>5992</v>
+        <v>6060</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>27</v>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>8.8999999999999999E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="E24" s="8">
-        <v>176.1</v>
+        <v>167.6</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>3.8E-3</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>29</v>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>3.8E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="E25" s="8">
-        <v>1441</v>
+        <v>1394</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>31</v>
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>3.0000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="E26" s="8">
-        <v>64.72</v>
+        <v>63.1</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1609,158 +1645,158 @@
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="A28" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="36">
-        <v>2.415</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
+      <c r="B29" s="32">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="34">
-        <v>-2.2000000000000001E-3</v>
-      </c>
-      <c r="G29" s="35"/>
+        <v>54</v>
+      </c>
+      <c r="F29" s="38">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7">
-        <v>1.32E-2</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>59</v>
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="D31" s="7">
-        <v>1.32E-2</v>
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="E31" s="8">
-        <v>10.210000000000001</v>
+        <v>10.35</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>34</v>
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="7">
-        <v>5.8999999999999999E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E32" s="8">
-        <v>103.23</v>
+        <v>120.97</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="38">
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>60</v>
+      <c r="A33" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="41">
+        <v>1.52E-2</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="D33" s="7">
-        <v>7.0000000000000001E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="29" t="s">
-        <v>57</v>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="D34" s="7">
-        <v>8.3000000000000001E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="38">
-        <v>3.6700000000000003E-2</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>37</v>
+      <c r="A35" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="41">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="D35" s="7">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E35" s="8">
-        <v>1944.56</v>
+        <v>1876.1</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="28" t="s">
-        <v>38</v>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="D36" s="7">
-        <v>3.61E-2</v>
+        <v>3.6200000000000003E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>462.53</v>
+        <v>471.93</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1773,48 +1809,43 @@
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
         <v>154004.837</v>
       </c>
       <c r="C40" s="9">
         <f>A2*B40</f>
-        <v>504673.85084900004</v>
+        <v>509293.99595899996</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A38:C38"/>
@@ -1831,6 +1862,11 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\08.ubuntu_ws\ediedone.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B04CC-3EB4-46F8-BEB1-A4FED4747C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525971C2-0C67-4B27-B660-C962AB52FD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{69258048-4F87-458D-9BA6-694171A7783B}"/>
   </bookViews>
@@ -789,46 +789,46 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36160D38-0BC6-43C8-BD91-90CCB0642CF3}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
@@ -1214,16 +1216,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3">
-        <v>3.3069999999999999</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="B2" s="4">
-        <v>9.2999999999999992E-3</v>
+        <v>-1.29E-2</v>
       </c>
       <c r="C2" s="5">
-        <v>272.45</v>
-      </c>
-      <c r="D2" s="29">
-        <v>0.74460000000000004</v>
+        <v>265.88</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0.74199999999999999</v>
       </c>
       <c r="E2" s="24"/>
     </row>
@@ -1235,32 +1237,32 @@
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32">
-        <v>3.5920000000000001</v>
-      </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="37">
+        <v>3.54</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="36">
-        <v>1.04E-2</v>
-      </c>
-      <c r="G5" s="37"/>
+      <c r="F5" s="33">
+        <v>-1.44E-2</v>
+      </c>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
@@ -1286,84 +1288,84 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="34">
-        <v>4.4400000000000002E-2</v>
+      <c r="B7" s="40">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>2.2200000000000001E-2</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="E7" s="8">
-        <v>943</v>
+        <v>942.3</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="28" t="s">
         <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>1.23E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="E8" s="8">
-        <v>943</v>
+        <v>942.3</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="28" t="s">
         <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>9.9000000000000008E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E9" s="8">
-        <v>943</v>
+        <v>942.3</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="34">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="40">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E10" s="8">
-        <v>5.0199999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="31" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>7.9000000000000008E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="E11" s="8">
-        <v>226</v>
+        <v>246.1</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1375,14 +1377,14 @@
       <c r="B12" s="4">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="7">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="E12" s="8">
-        <v>1672</v>
+        <v>1646</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1392,65 +1394,65 @@
         <v>8</v>
       </c>
       <c r="B13" s="4">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="C13" s="30" t="s">
+        <v>5.21E-2</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>5.4199999999999998E-2</v>
+        <v>5.21E-2</v>
       </c>
       <c r="E13" s="8">
-        <v>1914</v>
+        <v>1822</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="34">
-        <v>0.39929999999999999</v>
+      <c r="B14" s="40">
+        <v>0.3926</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>0.1295</v>
+        <v>0.1273</v>
       </c>
       <c r="E14" s="8">
-        <v>55700</v>
+        <v>54300</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="40"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="7">
-        <v>0.1835</v>
+        <v>0.1804</v>
       </c>
       <c r="E15" s="8">
-        <v>55700</v>
+        <v>54300</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="40"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="30" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="31" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>8.6300000000000002E-2</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="E16" s="8">
-        <v>55700</v>
+        <v>54300</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -1460,32 +1462,32 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="C17" s="30" t="s">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>2.6800000000000001E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="E17" s="8">
-        <v>223.2</v>
+        <v>246.4</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="34">
-        <v>4.1599999999999998E-2</v>
+      <c r="B18" s="40">
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>2.9700000000000001E-2</v>
+        <v>3.0499999999999999E-2</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>4</v>
@@ -1494,13 +1496,13 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="42"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>1.1900000000000001E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>4</v>
@@ -1513,16 +1515,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="C20" s="30" t="s">
+        <v>1.38E-2</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>1.4200000000000001E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>813.4</v>
+        <v>780.1</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1532,50 +1534,50 @@
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="C21" s="30" t="s">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="7">
-        <v>3.3799999999999997E-2</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="E21" s="8">
-        <v>253.2</v>
+        <v>265.2</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="34">
-        <v>2.93E-2</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B22" s="40">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>1.67E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>730.3</v>
+        <v>674.6</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="42"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1.26E-2</v>
+        <v>1.23E-2</v>
       </c>
       <c r="E23" s="8">
-        <v>6060</v>
+        <v>5834</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1585,16 +1587,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="4">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="C24" s="30" t="s">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>8.3000000000000001E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="E24" s="8">
-        <v>167.6</v>
+        <v>171.9</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1604,16 +1606,16 @@
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="C25" s="30" t="s">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="7">
-        <v>3.5999999999999999E-3</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="E25" s="8">
-        <v>1394</v>
+        <v>1466</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1625,14 +1627,14 @@
       <c r="B26" s="4">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="7">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="E26" s="8">
-        <v>63.1</v>
+        <v>62.64</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1645,32 +1647,32 @@
       <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="32">
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="37">
+        <v>2.423</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="38">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G29" s="39"/>
+      <c r="F29" s="35">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
@@ -1700,16 +1702,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="7">
-        <v>1.3299999999999999E-2</v>
-      </c>
-      <c r="C31" s="31" t="s">
+        <v>1.4E-2</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="7">
-        <v>1.3299999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E31" s="8">
-        <v>10.35</v>
+        <v>10.85</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1719,32 +1721,32 @@
         <v>31</v>
       </c>
       <c r="B32" s="7">
-        <v>6.7999999999999996E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="7">
-        <v>6.7999999999999996E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="E32" s="8">
-        <v>120.97</v>
+        <v>138.52000000000001</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="41">
-        <v>1.52E-2</v>
+      <c r="B33" s="39">
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="7">
-        <v>6.7999999999999996E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>4</v>
@@ -1753,13 +1755,13 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="27" t="s">
         <v>55</v>
       </c>
       <c r="D34" s="7">
-        <v>8.3999999999999995E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>4</v>
@@ -1768,11 +1770,11 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="41">
-        <v>3.6799999999999999E-2</v>
+      <c r="B35" s="39">
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>35</v>
@@ -1781,22 +1783,22 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="E35" s="8">
-        <v>1876.1</v>
+        <v>1886.63</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="26" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="7">
-        <v>3.6200000000000003E-2</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="E36" s="8">
-        <v>471.93</v>
+        <v>434.14</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -1809,11 +1811,11 @@
       <c r="E37" s="17"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="25"/>
       <c r="E38" s="25"/>
     </row>
@@ -1839,13 +1841,18 @@
       </c>
       <c r="C40" s="9">
         <f>A2*B40</f>
-        <v>509293.99595899996</v>
+        <v>502671.78796799999</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A38:C38"/>
@@ -1862,11 +1869,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>
